--- a/671result.xlsx
+++ b/671result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qminjia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020FA\SI671\SI671project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0D673C-DF28-43E2-81E3-4FB396C07E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +59,34 @@
   </si>
   <si>
     <t>Random Forest Classifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surprise package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVDpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNNBaseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNNWithZScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handwritten SVD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +107,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,26 +190,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,26 +505,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -495,61 +539,116 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="7">
+      <c r="D6" s="13">
         <v>0.77300000000000002</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>2.4089999999999998</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>0.53900000000000003</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>0.54300000000000004</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>0.56100000000000005</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+    <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>1.732</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>1.617</v>
       </c>
       <c r="F9" s="4"/>
     </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.624</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.0640000000000001</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/671result.xlsx
+++ b/671result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020FA\SI671\SI671project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0D673C-DF28-43E2-81E3-4FB396C07E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED397D9C-8B47-4AFF-B6CB-CECFE3D8C4D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,58 @@
   </si>
   <si>
     <t>Handwritten SVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decomposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampled dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sparse dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dense dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,43 +239,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,16 +567,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
@@ -523,132 +584,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:6" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="13">
+      <c r="C8" s="5"/>
+      <c r="D8" s="20">
         <v>0.77300000000000002</v>
       </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8">
-        <v>2.4089999999999998</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="7" t="s">
+      <c r="D9" s="10">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D10" s="8">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.726</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="F12" s="3">
         <v>0.54300000000000004</v>
       </c>
-      <c r="E8" s="8">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1.732</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1.617</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
+    </row>
+    <row r="13" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="7" t="s">
+      <c r="D13" s="8">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.624</v>
-      </c>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="9" t="s">
+      <c r="D14" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="19"/>
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="8">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="2:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="D15" s="9">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.747</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4.0640000000000001</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="C16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21">
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="F16" s="21">
+        <v>4.4340000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3">
+        <v>19524</v>
+      </c>
+      <c r="D24" s="3">
+        <v>14946</v>
+      </c>
+      <c r="E24" s="3">
+        <v>20900</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>100</v>
+      </c>
+      <c r="D25" s="3">
+        <v>11961</v>
+      </c>
+      <c r="E25" s="3">
+        <v>18217</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3">
+        <v>515</v>
+      </c>
+      <c r="D26" s="3">
+        <v>24025</v>
+      </c>
+      <c r="E26" s="3">
+        <v>41486</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3">
+        <v>378</v>
+      </c>
+      <c r="D27" s="3">
+        <v>303</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4">
+        <v>67</v>
+      </c>
+      <c r="D28" s="4">
+        <v>53</v>
+      </c>
+      <c r="E28" s="4">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B10:B12"/>
+  <mergeCells count="5">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
